--- a/bh3/545126526343142475_2021-07-09_00-09-20.xlsx
+++ b/bh3/545126526343142475_2021-07-09_00-09-20.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -721,11 +721,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3955,11 +3955,11 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10014,11 +10014,11 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17825,7 +17825,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19478,7 +19478,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19687,7 +19687,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20133,7 +20133,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20208,7 +20208,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20497,7 +20497,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21489,7 +21489,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -22094,11 +22094,11 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22614,7 +22614,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -23061,11 +23061,11 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23361,7 +23361,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23959,7 +23959,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24030,7 +24030,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24189,7 +24189,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24347,7 +24347,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24426,7 +24426,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25337,7 +25337,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25862,7 +25862,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25933,7 +25933,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26079,7 +26079,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26381,7 +26381,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26823,7 +26823,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27332,7 +27332,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27479,7 +27479,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27558,7 +27558,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27779,7 +27779,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -28080,7 +28080,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28309,7 +28309,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28388,7 +28388,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28467,7 +28467,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28754,7 +28754,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -29047,7 +29047,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29702,7 +29702,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29773,7 +29773,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30193,7 +30193,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30485,7 +30485,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -31050,7 +31050,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31129,7 +31129,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31204,7 +31204,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31279,7 +31279,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31354,7 +31354,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31713,7 +31713,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31873,7 +31873,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -32153,7 +32153,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32698,7 +32698,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -33142,7 +33142,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33438,7 +33438,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -33651,7 +33651,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -34031,7 +34031,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -34189,7 +34189,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -34410,7 +34410,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34568,7 +34568,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34718,7 +34718,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34868,7 +34868,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -35390,7 +35390,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -35857,7 +35857,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35995,7 +35995,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -36220,7 +36220,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36524,7 +36524,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36682,7 +36682,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -37069,7 +37069,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -37141,7 +37141,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -37449,7 +37449,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37595,7 +37595,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37674,7 +37674,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37907,7 +37907,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -38049,7 +38049,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -38120,7 +38120,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -38341,7 +38341,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38483,7 +38483,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38633,7 +38633,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -39012,7 +39012,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39159,7 +39159,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -39238,7 +39238,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39317,7 +39317,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -39396,7 +39396,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39471,7 +39471,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39550,7 +39550,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39622,7 +39622,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39690,7 +39690,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39765,7 +39765,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39836,7 +39836,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39982,7 +39982,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -40054,7 +40054,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -40121,7 +40121,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -40279,7 +40279,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -40350,7 +40350,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40421,7 +40421,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40701,7 +40701,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40845,7 +40845,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40921,7 +40921,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -41068,7 +41068,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -41214,7 +41214,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -41289,7 +41289,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -41439,7 +41439,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -41506,7 +41506,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41660,7 +41660,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -41746,7 +41746,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41904,7 +41904,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -42054,7 +42054,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -42133,7 +42133,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42271,7 +42271,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -42496,7 +42496,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -42571,7 +42571,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -42872,7 +42872,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42951,7 +42951,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -43975,7 +43975,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -44054,7 +44054,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -44366,7 +44366,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -44441,7 +44441,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -44520,7 +44520,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -44658,7 +44658,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -44816,7 +44816,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44959,7 +44959,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -45034,7 +45034,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -45101,7 +45101,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -45168,7 +45168,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -45247,7 +45247,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -45405,7 +45405,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -45476,7 +45476,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -45702,7 +45702,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -45781,7 +45781,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45861,7 +45861,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -45940,7 +45940,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -46007,7 +46007,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -46086,7 +46086,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -46161,7 +46161,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -46228,7 +46228,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -46299,7 +46299,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -46369,7 +46369,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -46448,7 +46448,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -46527,7 +46527,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -46590,7 +46590,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -46667,7 +46667,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -46749,7 +46749,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46812,7 +46812,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46887,7 +46887,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -46962,7 +46962,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -47041,7 +47041,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -47179,7 +47179,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -47254,7 +47254,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -47321,7 +47321,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -47400,7 +47400,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -47479,7 +47479,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -47558,7 +47558,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -47708,7 +47708,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47787,7 +47787,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -48745,7 +48745,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48816,7 +48816,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -48883,7 +48883,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -49037,7 +49037,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -49188,7 +49188,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -49416,7 +49416,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -49495,7 +49495,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -49721,7 +49721,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -50089,7 +50089,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -50377,7 +50377,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -50531,7 +50531,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -50610,7 +50610,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -51130,7 +51130,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -51672,7 +51672,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -52119,7 +52119,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -52427,7 +52427,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -52490,7 +52490,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -52632,7 +52632,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -52950,7 +52950,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -53605,7 +53605,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -53673,7 +53673,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -53833,7 +53833,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -53912,7 +53912,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -54068,7 +54068,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -54277,7 +54277,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -54348,7 +54348,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -54419,7 +54419,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -54498,7 +54498,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -54577,7 +54577,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -54656,7 +54656,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -54728,7 +54728,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -54795,7 +54795,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -54875,7 +54875,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -55106,7 +55106,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -55185,7 +55185,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -55253,7 +55253,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -55328,7 +55328,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -55403,7 +55403,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -55561,7 +55561,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -55640,7 +55640,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -55715,7 +55715,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -55869,7 +55869,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -55936,7 +55936,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -56007,7 +56007,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -56086,7 +56086,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -56161,7 +56161,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -56240,7 +56240,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -56378,7 +56378,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -56449,7 +56449,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -56516,7 +56516,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -56587,7 +56587,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -56658,7 +56658,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -56729,7 +56729,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -56808,7 +56808,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -56879,7 +56879,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -56950,7 +56950,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -57029,7 +57029,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -57108,7 +57108,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -57179,7 +57179,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -57258,7 +57258,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -57334,7 +57334,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -58179,7 +58179,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -58254,7 +58254,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -58325,7 +58325,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -58542,7 +58542,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
